--- a/test/inputs_test.xlsx
+++ b/test/inputs_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisboa\PycharmProjects\embers_offline\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207C5F2D-53AB-47F5-BEA8-D506C23B8C1C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451B012-DF44-4FB8-8E74-E00FE93A426A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CF - Fuels Data" sheetId="15" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="438">
   <si>
     <t>Fuel</t>
   </si>
@@ -809,9 +809,6 @@
     <t>It represents the time split of each modelled year, therefore the time resolution of the model. </t>
   </si>
   <si>
-    <t>[1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,272,82,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48]</t>
-  </si>
-  <si>
     <t>Time period</t>
   </si>
   <si>
@@ -827,9 +824,6 @@
     <t>It defines the number of modes of operation that the technologies can have. If a technology can have various input or output fuels and it can choose the mix (i.e. any linear combination) of these input or output fuels, each mix can be accounted as a separate mode of operation.  The user must input atleast 1 mode of operation. There muts be two modes of operation if storage is used in the model</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>Storage</t>
   </si>
   <si>
@@ -857,9 +851,6 @@
     <t xml:space="preserve">Storage specific value for the discount rate, expressed in decimals </t>
   </si>
   <si>
-    <t>0.04</t>
-  </si>
-  <si>
     <t>Storage operational life</t>
   </si>
   <si>
@@ -1262,9 +1253,6 @@
     <t>Name of the storage</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>storage</t>
   </si>
   <si>
@@ -1352,7 +1340,13 @@
     <t>co2</t>
   </si>
   <si>
-    <t>CO3</t>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[co2]</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
 </sst>
 </file>
@@ -2729,28 +2723,28 @@
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="12" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" ht="24" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
       <c r="A6" s="16" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
     </row>
     <row r="7" spans="1:3" ht="24" customHeight="1">
       <c r="A7" s="11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -2786,16 +2780,16 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="76" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>139</v>
@@ -2804,7 +2798,7 @@
         <v>140</v>
       </c>
       <c r="G1" s="79" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H1" s="78" t="s">
         <v>141</v>
@@ -2815,10 +2809,10 @@
     </row>
     <row r="2" spans="1:9" ht="39.6">
       <c r="A2" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>143</v>
@@ -2844,10 +2838,10 @@
     </row>
     <row r="3" spans="1:9" ht="26.4">
       <c r="A3" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>147</v>
@@ -2862,7 +2856,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="75" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H3" s="61" t="s">
         <v>6</v>
@@ -2873,10 +2867,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>150</v>
@@ -2902,10 +2896,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>154</v>
@@ -2931,10 +2925,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>158</v>
@@ -2960,10 +2954,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>162</v>
@@ -2989,10 +2983,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>165</v>
@@ -3018,10 +3012,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>168</v>
@@ -3047,10 +3041,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>171</v>
@@ -3076,10 +3070,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>174</v>
@@ -3105,10 +3099,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>178</v>
@@ -3134,10 +3128,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>181</v>
@@ -3163,10 +3157,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>184</v>
@@ -3192,10 +3186,10 @@
     </row>
     <row r="15" spans="1:9" ht="26.4">
       <c r="A15" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>187</v>
@@ -3221,10 +3215,10 @@
     </row>
     <row r="16" spans="1:9" ht="26.4">
       <c r="A16" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>192</v>
@@ -3250,10 +3244,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>196</v>
@@ -3279,10 +3273,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>199</v>
@@ -3308,10 +3302,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>202</v>
@@ -3337,10 +3331,10 @@
     </row>
     <row r="20" spans="1:9" ht="39.6">
       <c r="A20" s="70" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>206</v>
@@ -3366,10 +3360,10 @@
     </row>
     <row r="21" spans="1:9" ht="39.6">
       <c r="A21" s="68" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>210</v>
@@ -3403,8 +3397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F076BD20-8E99-4F41-B28E-35176DA2B1FF}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3413,8 +3407,8 @@
     <col min="2" max="2" width="22.44140625" customWidth="1"/>
     <col min="3" max="3" width="80.77734375" customWidth="1"/>
     <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" customWidth="1"/>
-    <col min="6" max="6" width="48.109375" customWidth="1"/>
+    <col min="5" max="5" width="50.33203125" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3422,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C1" s="77" t="s">
         <v>142</v>
@@ -3434,7 +3428,7 @@
         <v>249</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3442,7 +3436,7 @@
         <v>250</v>
       </c>
       <c r="B2" s="53" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C2" s="53" t="s">
         <v>251</v>
@@ -3462,7 +3456,7 @@
         <v>254</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>255</v>
@@ -3471,10 +3465,10 @@
         <v>252</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3482,7 +3476,7 @@
         <v>256</v>
       </c>
       <c r="B4" s="53" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C4" s="53" t="s">
         <v>257</v>
@@ -3491,84 +3485,84 @@
         <v>252</v>
       </c>
       <c r="E4" s="53" t="s">
-        <v>258</v>
+        <v>437</v>
       </c>
       <c r="F4" s="53" t="s">
-        <v>258</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>259</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>260</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>252</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="53" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="53" t="s">
         <v>262</v>
-      </c>
-      <c r="B6" s="53" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="53" t="s">
-        <v>263</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>252</v>
       </c>
       <c r="E6" s="53" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="F6" s="53" t="s">
-        <v>264</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>252</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D8" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E8">
         <v>150000000</v>
@@ -3586,8 +3580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7655F0EF-0086-4BA1-BC6B-8BA379523A61}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3603,10 +3597,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="82" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B1" s="82" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C1" s="82" t="s">
         <v>6</v>
@@ -3615,7 +3609,7 @@
         <v>140</v>
       </c>
       <c r="E1" s="91" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F1" s="91"/>
     </row>
@@ -3624,30 +3618,30 @@
         <v>20</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="81" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F2" s="81" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B3" s="84" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C3" s="84" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D3" s="84" t="s">
         <v>74</v>
@@ -3661,33 +3655,33 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="87" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C4" s="87" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D4" s="87" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="F4" s="88" t="s">
-        <v>274</v>
+      <c r="E4" s="88">
+        <v>0.04</v>
+      </c>
+      <c r="F4" s="88">
+        <v>0.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="83" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D5" s="83" t="s">
         <v>225</v>
@@ -3701,13 +3695,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B6" s="89" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C6" s="89" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D6" s="89" t="s">
         <v>67</v>
@@ -3721,13 +3715,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="83" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D7" s="83" t="s">
         <v>67</v>
@@ -3741,13 +3735,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C8" s="87" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D8" s="87" t="s">
         <v>252</v>
@@ -3761,13 +3755,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="83" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D9" s="83" t="s">
         <v>252</v>
@@ -3781,13 +3775,13 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B10" s="89" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C10" s="89" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D10" s="89" t="s">
         <v>252</v>
@@ -3801,13 +3795,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="83" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C11" s="83" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D11" s="83" t="s">
         <v>176</v>
@@ -3821,13 +3815,13 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="87" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B12" s="87" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C12" s="87" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D12" s="87" t="s">
         <v>176</v>
@@ -3841,13 +3835,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="83" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D13" s="83" t="s">
         <v>176</v>
@@ -3861,13 +3855,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="89" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B14" s="89" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C14" s="89" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D14" s="89" t="s">
         <v>67</v>
@@ -3881,13 +3875,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="83" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B15" s="83" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C15" s="83" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D15" s="83" t="s">
         <v>67</v>
@@ -3901,13 +3895,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="87" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B16" s="87" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D16" s="87" t="s">
         <v>67</v>
@@ -3921,16 +3915,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="83" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C17" s="83" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D17" s="83" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E17" s="85">
         <v>0.21</v>
@@ -3952,8 +3946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170C767-BB71-4BBE-884E-8FE2F4DAC3E3}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3974,21 +3968,21 @@
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="60" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="D2" s="60" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E2" s="60">
         <v>150000</v>
@@ -3997,13 +3991,9 @@
     <row r="3" spans="1:5">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
-      <c r="C3" s="60" t="s">
-        <v>439</v>
-      </c>
+      <c r="C3" s="60"/>
       <c r="D3" s="19"/>
-      <c r="E3" s="60">
-        <v>150000</v>
-      </c>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="12"/>
@@ -4133,10 +4123,10 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="50" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B1" s="50" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C1" s="51" t="s">
         <v>139</v>
@@ -4153,31 +4143,31 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="55" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B3" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6" t="s">
@@ -4189,19 +4179,19 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F4" s="6">
         <v>25</v>
@@ -4209,74 +4199,74 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="56" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B5" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="57" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B6" s="5" t="b">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="58" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G6" s="58" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="E14" s="59" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F14" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="E15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F15" s="60" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G15" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="E16" s="59" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G16" s="59" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -4350,7 +4340,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C4" s="13">
         <v>39.397221999999999</v>
@@ -4364,7 +4354,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C5" s="15">
         <v>39.393056000000001</v>
@@ -4378,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C6" s="13">
         <v>39.398611000000002</v>
@@ -4392,7 +4382,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C7" s="15">
         <v>39.385556000000001</v>
@@ -5745,10 +5735,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E4" s="14">
         <v>220</v>
@@ -5762,16 +5752,16 @@
         <v>438</v>
       </c>
       <c r="J4" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="K4" t="s">
         <v>345</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>348</v>
       </c>
-      <c r="L4" t="s">
-        <v>351</v>
-      </c>
       <c r="M4" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N4"/>
       <c r="O4"/>
@@ -5793,10 +5783,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E5" s="19">
         <v>70</v>
@@ -5810,16 +5800,16 @@
         <v>279</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K5" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="L5" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="L5" s="25" t="s">
-        <v>351</v>
-      </c>
       <c r="M5" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N5" s="24"/>
       <c r="O5" s="24"/>
@@ -5841,10 +5831,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E6" s="14">
         <v>140</v>
@@ -5858,16 +5848,16 @@
         <v>73</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K6" t="s">
+        <v>346</v>
+      </c>
+      <c r="L6" t="s">
         <v>349</v>
       </c>
-      <c r="L6" t="s">
-        <v>352</v>
-      </c>
       <c r="M6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -5889,10 +5879,10 @@
         <v>1</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E7" s="19">
         <v>900</v>
@@ -5906,16 +5896,16 @@
         <v>2741</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K7" s="25" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L7" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="N7" s="24"/>
       <c r="O7" s="24"/>
@@ -8052,10 +8042,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D4" s="13">
         <v>39.394722000000002</v>
@@ -8069,10 +8059,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D5" s="15">
         <v>39.391388999999997</v>
@@ -8086,10 +8076,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D6" s="13">
         <v>39.398055999999997</v>
@@ -8103,10 +8093,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D7" s="15">
         <v>39.397221999999999</v>
@@ -8120,10 +8110,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D8" s="13">
         <v>39.396667000000001</v>
@@ -8137,10 +8127,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D9" s="15">
         <v>39.396110999999998</v>
@@ -8154,10 +8144,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D10" s="13">
         <v>39.369999999999997</v>
@@ -8736,10 +8726,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D4" s="53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E4" s="53">
         <v>77</v>
@@ -8753,22 +8743,22 @@
         <v>898.09938269999998</v>
       </c>
       <c r="J4" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K4" s="53">
         <v>0.9</v>
       </c>
       <c r="L4" s="53" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M4" s="53" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N4" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O4" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W4"/>
       <c r="X4"/>
@@ -8783,10 +8773,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E5" s="11">
         <v>10</v>
@@ -8800,22 +8790,22 @@
         <v>36.575925929999997</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K5" s="11">
         <v>0.9</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="N5" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O5" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P5" s="24"/>
       <c r="Q5" s="24"/>
@@ -8837,10 +8827,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D6" s="53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E6" s="53">
         <v>77</v>
@@ -8854,22 +8844,22 @@
         <v>852.27272730000004</v>
       </c>
       <c r="J6" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K6" s="53">
         <v>0.9</v>
       </c>
       <c r="L6" s="53" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M6" s="53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N6" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O6" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W6"/>
       <c r="X6"/>
@@ -8884,10 +8874,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E7" s="11">
         <v>10</v>
@@ -8901,22 +8891,22 @@
         <v>35.118749999999999</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K7" s="11">
         <v>0.9</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N7" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O7" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P7" s="24"/>
       <c r="Q7" s="24"/>
@@ -8938,10 +8928,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D8" s="53" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E8" s="53">
         <v>77</v>
@@ -8955,22 +8945,22 @@
         <v>282.55208329999999</v>
       </c>
       <c r="J8" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K8" s="53">
         <v>0.9</v>
       </c>
       <c r="L8" s="53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M8" s="53" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N8" s="53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O8" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W8"/>
       <c r="X8"/>
@@ -8985,10 +8975,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E9" s="11">
         <v>10</v>
@@ -9002,22 +8992,22 @@
         <v>11.50711806</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K9" s="11">
         <v>0.9</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="N9" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O9" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P9" s="24"/>
       <c r="Q9" s="24"/>
@@ -9039,10 +9029,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="53" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D10" s="53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E10" s="53">
         <v>10</v>
@@ -9056,22 +9046,22 @@
         <v>271.577381</v>
       </c>
       <c r="J10" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K10" s="53">
         <v>0.9</v>
       </c>
       <c r="L10" s="53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M10" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="N10" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="N10" s="53" t="s">
-        <v>351</v>
-      </c>
       <c r="O10" s="53" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="W10"/>
       <c r="X10"/>
@@ -9086,10 +9076,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E11" s="11">
         <v>77</v>
@@ -9103,22 +9093,22 @@
         <v>1357.8869050000001</v>
       </c>
       <c r="J11" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K11" s="11">
         <v>0.9</v>
       </c>
       <c r="L11" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M11" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="N11" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="N11" s="25" t="s">
-        <v>351</v>
-      </c>
       <c r="O11" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P11" s="24"/>
       <c r="Q11" s="24"/>
@@ -9140,10 +9130,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="53" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E12" s="53">
         <v>10</v>
@@ -9157,22 +9147,22 @@
         <v>147.437624</v>
       </c>
       <c r="J12" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K12" s="53">
         <v>0.9</v>
       </c>
       <c r="L12" s="53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M12" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="N12" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="N12" s="53" t="s">
-        <v>351</v>
-      </c>
       <c r="O12" s="53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="W12"/>
       <c r="X12"/>
@@ -9187,10 +9177,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E13" s="11">
         <v>66</v>
@@ -9204,22 +9194,22 @@
         <v>3018.229167</v>
       </c>
       <c r="J13" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K13" s="11">
         <v>0.9</v>
       </c>
       <c r="L13" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M13" s="25" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N13" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O13" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -9241,10 +9231,10 @@
         <v>2</v>
       </c>
       <c r="C14" s="53" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D14" s="53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E14" s="53">
         <v>10</v>
@@ -9258,22 +9248,22 @@
         <v>163.50364579999999</v>
       </c>
       <c r="J14" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K14" s="53">
         <v>0.9</v>
       </c>
       <c r="L14" s="53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M14" s="53" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="N14" s="53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O14" s="53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="W14"/>
       <c r="X14"/>
@@ -9288,10 +9278,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E15" s="11">
         <v>77</v>
@@ -9305,22 +9295,22 @@
         <v>1672.203745</v>
       </c>
       <c r="J15" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K15" s="11">
         <v>0.9</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M15" s="25" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="N15" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O15" s="25" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
@@ -9342,10 +9332,10 @@
         <v>2</v>
       </c>
       <c r="C16" s="53" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D16" s="53" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E16" s="53">
         <v>10</v>
@@ -9359,22 +9349,22 @@
         <v>68.296378970000006</v>
       </c>
       <c r="J16" s="53" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K16" s="53">
         <v>0.9</v>
       </c>
       <c r="L16" s="53" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M16" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="N16" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="N16" s="53" t="s">
-        <v>351</v>
-      </c>
       <c r="O16" s="53" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="W16"/>
       <c r="X16"/>
@@ -9389,10 +9379,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E17" s="11">
         <v>10</v>
@@ -9406,22 +9396,22 @@
         <v>596.71232880000002</v>
       </c>
       <c r="J17" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="K17" s="11">
         <v>0.9</v>
       </c>
       <c r="L17" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N17" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="O17" s="25" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
@@ -10742,31 +10732,31 @@
         <v>75</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>324</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>327</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>95</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K1" s="18" t="s">
         <v>80</v>
@@ -10792,31 +10782,31 @@
         <v>78</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>330</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>331</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>332</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>335</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>121</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>82</v>
@@ -10860,7 +10850,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="27" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="I3" s="27" t="s">
         <v>63</v>

--- a/test/inputs_test.xlsx
+++ b/test/inputs_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisboa\PycharmProjects\embers_offline\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8451B012-DF44-4FB8-8E74-E00FE93A426A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3EE17D-2CFE-474E-9656-60F217531E60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CF - Fuels Data" sheetId="15" r:id="rId1"/>
@@ -21,11 +21,11 @@
     <sheet name="CF - Simple Sinks' Streams" sheetId="3" r:id="rId6"/>
     <sheet name="CF - Sinks Greenhouse" sheetId="5" r:id="rId7"/>
     <sheet name="MARKET" sheetId="7" r:id="rId8"/>
-    <sheet name="CF - Sinks Buildings" sheetId="4" r:id="rId9"/>
-    <sheet name="GIS" sheetId="17" r:id="rId10"/>
-    <sheet name="TEO - Sets" sheetId="20" r:id="rId11"/>
-    <sheet name="TEO - Storages" sheetId="18" r:id="rId12"/>
-    <sheet name="TEO - Annual Emission Limit" sheetId="19" r:id="rId13"/>
+    <sheet name="TEO - Annual Emission Limit" sheetId="19" r:id="rId9"/>
+    <sheet name="CF - Sinks Buildings" sheetId="4" r:id="rId10"/>
+    <sheet name="GIS" sheetId="17" r:id="rId11"/>
+    <sheet name="TEO - Sets" sheetId="20" r:id="rId12"/>
+    <sheet name="TEO - Storages" sheetId="18" r:id="rId13"/>
     <sheet name="BM" sheetId="9" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -2758,6 +2758,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:AD35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="27.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="35.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31" style="21" customWidth="1"/>
+    <col min="20" max="20" width="42.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="29.44140625" style="21" customWidth="1"/>
+    <col min="22" max="22" width="42.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="21" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30" style="21" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="27.88671875" style="21" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="12.5546875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="R1" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="S1" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="T1" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="U1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="V1" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="W1" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="X1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y1" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z1" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AB1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AC1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="X2" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA2" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AB2" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC2" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="AD2" s="44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="S3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="V3" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="X3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC3" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD3" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="49"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="15"/>
+      <c r="S11" s="15"/>
+      <c r="T11" s="15"/>
+      <c r="U11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="38"/>
+      <c r="AC13" s="38"/>
+      <c r="AD13" s="38"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="15"/>
+      <c r="R15" s="15"/>
+      <c r="S15" s="15"/>
+      <c r="T15" s="15"/>
+      <c r="U15" s="15"/>
+      <c r="V15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="38"/>
+      <c r="AB17" s="38"/>
+      <c r="AC17" s="38"/>
+      <c r="AD17" s="38"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="15"/>
+      <c r="S19" s="15"/>
+      <c r="T19" s="15"/>
+      <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="38"/>
+      <c r="AB19" s="38"/>
+      <c r="AC19" s="38"/>
+      <c r="AD19" s="38"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="15"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="15"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="38"/>
+      <c r="AB23" s="38"/>
+      <c r="AC23" s="38"/>
+      <c r="AD23" s="38"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AA25" s="38"/>
+      <c r="AB25" s="38"/>
+      <c r="AC25" s="38"/>
+      <c r="AD25" s="38"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="15"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+      <c r="W27" s="15"/>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="38"/>
+      <c r="AB27" s="38"/>
+      <c r="AC27" s="38"/>
+      <c r="AD27" s="38"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="25"/>
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="38"/>
+      <c r="AB29" s="38"/>
+      <c r="AC29" s="38"/>
+      <c r="AD29" s="38"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="25"/>
+      <c r="Y31" s="25"/>
+      <c r="Z31" s="25"/>
+      <c r="AA31" s="38"/>
+      <c r="AB31" s="38"/>
+      <c r="AC31" s="38"/>
+      <c r="AD31" s="38"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A33" s="15"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="15"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="38"/>
+      <c r="AB33" s="38"/>
+      <c r="AC33" s="38"/>
+      <c r="AD33" s="38"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" customHeight="1">
+      <c r="A35" s="15"/>
+      <c r="B35" s="15"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="15"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="15"/>
+      <c r="S35" s="15"/>
+      <c r="T35" s="15"/>
+      <c r="U35" s="15"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="38"/>
+      <c r="AD35" s="38"/>
+    </row>
+  </sheetData>
+  <dataValidations xWindow="1672" yWindow="426" count="32">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Fuel associated to heating/cooling stream" sqref="S1:V1" xr:uid="{157AD1AF-415E-48E7-BE75-2D7186743F6C}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce the Sink ID according to &quot;CF - Sinks Data&quot;" sqref="A4:A35" xr:uid="{EFAD87F4-7073-4CBB-AEB0-A963110D2698}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce building orientation" sqref="B4:B35" xr:uid="{565F6982-05D3-4689-A7EA-5C5F415D80E4}">
+      <formula1>"North,South, East, West"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If residential provide number of persons per floor , otherwise BLANK. If hotel provide number of rooms, otherwise BLANK." sqref="D4:E35" xr:uid="{254F0481-AEAB-49F2-9CA8-A0F77555163F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Number of floors" sqref="F4:F35" xr:uid="{905BBD29-F5B4-4EE5-B581-80027D2E5766}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Building floor width" sqref="G4:G35" xr:uid="{0637BCA5-E08F-44DD-95EA-1943B516CF12}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Building floor length" sqref="H4:H35" xr:uid="{5A4B68D5-B975-416C-A93B-2E2CDCCA163B}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Building floors height" sqref="I4:I35" xr:uid="{BF005696-551A-4861-9D2E-1D8F7B0C2B57}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Space heating working fluid temperature. Conventional: heaters fluid working at 75ºC-45ºC; Low temperature:heaters fluid working at 50ºC-30ºC" sqref="J4:J35" xr:uid="{8C105DC9-D83F-4D7C-8835-BA826701785E}">
+      <formula1>"Conventional, Low temperature"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air maximum temperature during occupied hours; Cooling is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="K4:K35" xr:uid="{EF16D6D7-156B-45C2-AEAF-73C7632D1604}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air minimum temperature during occupied hours; Heating is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="L4:L35" xr:uid="{56A5224E-ABE6-42AC-B5BD-E5B1659F12DA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air maximum temperature during unnoccupied hours; Cooling is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="M4:M35" xr:uid="{FDAC099D-F057-4DA0-9AC7-D72F9BDBEF23}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air minimum temperature during unnoccupied hours; Heating is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="N4:N35" xr:uid="{9974ACDE-2CD9-4B35-88C9-938DC7757CB7}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="Y5:Y35" xr:uid="{6C36BCA4-7532-4CB3-B1E7-FF147EC5B7C3}">
+      <formula1>"yes;no"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Sunday (stream/building). Daily periods assumed on Sunday" sqref="Z5:Z35" xr:uid="{67A10EC7-3D2A-4A27-97CA-E020F7B3A01D}">
+      <formula1>"yes;no"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Daily Periods Input" prompt="Daily hourly periods stream/building is available/occupied. (e.g. [[0,12]] or [[9,12],[17,23]]). Pay attention to the brackets when introducing periods" sqref="X4:X35" xr:uid="{BA37E994-C7E6-4A31-A45C-B223C8F879F2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Introduce the yearly value" sqref="AB4:AB35" xr:uid="{9454B669-B7C1-439D-A6C6-BF11ED1A2303}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Introduce list with a value for each month; e.g [234, 200,...]" sqref="AA4:AA35" xr:uid="{C0275D01-B8F8-468A-84BD-27E82381A762}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING - Introduce list with a value for each month; e.g [234, 200,...]" sqref="AC4:AC35" xr:uid="{569DEFC2-1FC6-41BF-84A2-A85CDD8D0A52}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING- Introduce the yearly value" sqref="AD4:AD35" xr:uid="{71997143-1542-4614-95F3-4CA57C79BF63}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of North wall area in the facade area (facade = wall + glass). Value between 0 and 1" sqref="O4:O35" xr:uid="{1844E762-E11D-4FC0-94F2-520185B15967}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of South wall area in the facade area (facade = wall + glass). Value between 0 and 1." sqref="P4:P35" xr:uid="{51FD6CB5-437B-43AA-BF67-22797C2D3A3E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of East wall area in the facade area (facade = wall + glass). Value between 0 and 1." sqref="Q4:Q35" xr:uid="{A35B47A6-2562-44FD-B820-F96390B87249}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of West wall area in the facade area (facade = wall + glass). Value between 0 and 1" sqref="R4:R35" xr:uid="{2C1E9AA3-88B6-4679-8ACF-FFF3DE5200C0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Ref. System - Equipment Efficiency', 'number', 'text','[]','ref_system_eff_equipment', 'Reference system Equipment efficiency. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by" sqref="T4:T35" xr:uid="{346086D3-2A9D-4CA2-AF41-ED51F1A8993A}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING - Ref. System - Equipment Efficiency', 'number', 'text','[]','ref_system_eff_equipment', 'Reference system Equipment efficiency. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by" sqref="V4:V35" xr:uid="{517792D2-4983-4B8C-9A46-26075DC41ED0}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shutdown Periods" prompt="Periods of days during the year the stream/building is not available/occupied. (e.g. [], [[1,12]] or [[200,231],[330,360]]. Pay attention to the brackets when introducing periods." sqref="W4:W35" xr:uid="{B0FEE2EA-40B5-43BD-B316-6DDB6F9C45D6}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Orange columns to consider a similar schedule for all days; Yellow columns to introduce real data. **ALWAYS introduce Orange; a Yellow cell for each row, only if you have real data" sqref="X1:AD2" xr:uid="{002D80A1-C6C0-4BF2-B99F-A32716AE2436}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce building type" sqref="C4:C35" xr:uid="{904B5C95-2F20-40B2-BE6D-24AFEA565F15}">
+      <formula1>"residential,office,hotel"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Reference system Fuel Type. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by a natural gas boiler" sqref="S4:S35" xr:uid="{0ADDC566-887B-47DC-85EE-48F380C7BCEA}">
+      <formula1>"none,natural_gas,biomass,fuel_oil,electricity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING - Reference system Fuel Type. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by a natural gas boiler" sqref="U4:U35" xr:uid="{43563217-CAFE-48A3-8BA9-E9AA255722C2}">
+      <formula1>"none,natural_gas,biomass,fuel_oil,electricity"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="Y4:Z4" xr:uid="{A4791DE3-56C9-4717-96D3-2005AEFE1FE5}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B037404C-FB2C-4890-A513-A8C2835B02A2}">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -3393,11 +4792,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F076BD20-8E99-4F41-B28E-35176DA2B1FF}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -3576,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7655F0EF-0086-4BA1-BC6B-8BA379523A61}">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -3937,163 +5336,6 @@
   <mergeCells count="1">
     <mergeCell ref="E1:F1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170C767-BB71-4BBE-884E-8FE2F4DAC3E3}">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="27.5546875" customWidth="1"/>
-    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="13" width="68.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="18"/>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="60" t="s">
-        <v>298</v>
-      </c>
-      <c r="B2" s="60" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="60" t="s">
-        <v>434</v>
-      </c>
-      <c r="D2" s="60" t="s">
-        <v>300</v>
-      </c>
-      <c r="E2" s="60">
-        <v>150000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="60"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11491,1416 +12733,163 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:AD35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E170C767-BB71-4BBE-884E-8FE2F4DAC3E3}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="27.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="35.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31" style="21" customWidth="1"/>
-    <col min="20" max="20" width="42.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="29.44140625" style="21" customWidth="1"/>
-    <col min="22" max="22" width="42.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="30" style="21" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="27.88671875" style="21" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="12.5546875" style="21"/>
+    <col min="1" max="1" width="27.5546875" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="13" width="68.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A1" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>85</v>
-      </c>
+    <row r="1" spans="1:5">
+      <c r="A1" s="18"/>
+      <c r="B1" s="18"/>
       <c r="C1" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>87</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="D1" s="18"/>
       <c r="E1" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="N1" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="P1" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q1" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="R1" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="S1" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T1" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB1" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC1" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD1" s="47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J2" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="K2" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="T2" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>130</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>131</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="X2" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y2" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z2" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="AB2" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC2" s="44" t="s">
-        <v>134</v>
-      </c>
-      <c r="AD2" s="44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="H3" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="J3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="U3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="V3" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="W3" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="X3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AB3" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AC3" s="48" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD3" s="48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4"/>
-      <c r="AB4"/>
-      <c r="AC4"/>
-      <c r="AD4"/>
-    </row>
-    <row r="5" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="49"/>
-    </row>
-    <row r="6" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
-      <c r="AA6"/>
-      <c r="AB6"/>
-      <c r="AC6"/>
-      <c r="AD6"/>
-    </row>
-    <row r="7" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="25"/>
-      <c r="Y7" s="25"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-    </row>
-    <row r="8" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8"/>
-      <c r="Y8"/>
-      <c r="Z8"/>
-      <c r="AA8"/>
-      <c r="AB8"/>
-      <c r="AC8"/>
-      <c r="AD8"/>
-    </row>
-    <row r="9" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
-      <c r="T9" s="15"/>
-      <c r="U9" s="15"/>
-      <c r="V9" s="15"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="38"/>
-      <c r="AD9" s="38"/>
-    </row>
-    <row r="10" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10"/>
-      <c r="Y10"/>
-      <c r="Z10"/>
-      <c r="AA10"/>
-      <c r="AB10"/>
-      <c r="AC10"/>
-      <c r="AD10"/>
-    </row>
-    <row r="11" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="15"/>
-      <c r="S11" s="15"/>
-      <c r="T11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="V11" s="15"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-    </row>
-    <row r="12" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
-      <c r="AA12"/>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
-    </row>
-    <row r="13" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15"/>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="25"/>
-      <c r="Y13" s="25"/>
-      <c r="Z13" s="25"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="38"/>
-      <c r="AC13" s="38"/>
-      <c r="AD13" s="38"/>
-    </row>
-    <row r="14" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-      <c r="X14"/>
-      <c r="Y14"/>
-      <c r="Z14"/>
-      <c r="AA14"/>
-      <c r="AB14"/>
-      <c r="AC14"/>
-      <c r="AD14"/>
-    </row>
-    <row r="15" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="25"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="25"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-    </row>
-    <row r="16" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16"/>
-      <c r="Y16"/>
-      <c r="Z16"/>
-      <c r="AA16"/>
-      <c r="AB16"/>
-      <c r="AC16"/>
-      <c r="AD16"/>
-    </row>
-    <row r="17" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
-      <c r="R17" s="15"/>
-      <c r="S17" s="15"/>
-      <c r="T17" s="15"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18"/>
-      <c r="Y18"/>
-      <c r="Z18"/>
-      <c r="AA18"/>
-      <c r="AB18"/>
-      <c r="AC18"/>
-      <c r="AD18"/>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="15"/>
-      <c r="Q19" s="15"/>
-      <c r="R19" s="15"/>
-      <c r="S19" s="15"/>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="38"/>
-      <c r="AB19" s="38"/>
-      <c r="AC19" s="38"/>
-      <c r="AD19" s="38"/>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20"/>
-      <c r="Y20"/>
-      <c r="Z20"/>
-      <c r="AA20"/>
-      <c r="AB20"/>
-      <c r="AC20"/>
-      <c r="AD20"/>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="15"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="15"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="15"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="15"/>
-      <c r="T21" s="15"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="25"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="25"/>
-      <c r="AA21" s="38"/>
-      <c r="AB21" s="38"/>
-      <c r="AC21" s="38"/>
-      <c r="AD21" s="38"/>
-    </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22"/>
-      <c r="Y22"/>
-      <c r="Z22"/>
-      <c r="AA22"/>
-      <c r="AB22"/>
-      <c r="AC22"/>
-      <c r="AD22"/>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15"/>
-      <c r="M23" s="15"/>
-      <c r="N23" s="15"/>
-      <c r="O23" s="15"/>
-      <c r="P23" s="15"/>
-      <c r="Q23" s="15"/>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="15"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="25"/>
-      <c r="Y23" s="25"/>
-      <c r="Z23" s="25"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
-      <c r="R25" s="15"/>
-      <c r="S25" s="15"/>
-      <c r="T25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="25"/>
-      <c r="Y25" s="25"/>
-      <c r="Z25" s="25"/>
-      <c r="AA25" s="38"/>
-      <c r="AB25" s="38"/>
-      <c r="AC25" s="38"/>
-      <c r="AD25" s="38"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="25"/>
-      <c r="Y27" s="25"/>
-      <c r="Z27" s="25"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="25"/>
-      <c r="Y29" s="25"/>
-      <c r="Z29" s="25"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-    </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
-      <c r="X30"/>
-      <c r="Y30"/>
-      <c r="Z30"/>
-      <c r="AA30"/>
-      <c r="AB30"/>
-      <c r="AC30"/>
-      <c r="AD30"/>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="25"/>
-      <c r="Y31" s="25"/>
-      <c r="Z31" s="25"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-    </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
-      <c r="X32"/>
-      <c r="Y32"/>
-      <c r="Z32"/>
-      <c r="AA32"/>
-      <c r="AB32"/>
-      <c r="AC32"/>
-      <c r="AD32"/>
-    </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
-      <c r="R33" s="15"/>
-      <c r="S33" s="15"/>
-      <c r="T33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="25"/>
-      <c r="Z33" s="25"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-    </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34"/>
-      <c r="Y34"/>
-      <c r="Z34"/>
-      <c r="AA34"/>
-      <c r="AB34"/>
-      <c r="AC34"/>
-      <c r="AD34"/>
-    </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="15"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="15"/>
-      <c r="R35" s="15"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="25"/>
-      <c r="Y35" s="25"/>
-      <c r="Z35" s="25"/>
-      <c r="AA35" s="38"/>
-      <c r="AB35" s="38"/>
-      <c r="AC35" s="38"/>
-      <c r="AD35" s="38"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="60" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="60" t="s">
+        <v>299</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>434</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>300</v>
+      </c>
+      <c r="E2" s="60">
+        <v>15000000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="19"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="60"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
   </sheetData>
-  <dataValidations xWindow="1672" yWindow="426" count="32">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Fuel associated to heating/cooling stream" sqref="S1:V1" xr:uid="{157AD1AF-415E-48E7-BE75-2D7186743F6C}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce the Sink ID according to &quot;CF - Sinks Data&quot;" sqref="A4:A35" xr:uid="{EFAD87F4-7073-4CBB-AEB0-A963110D2698}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce building orientation" sqref="B4:B35" xr:uid="{565F6982-05D3-4689-A7EA-5C5F415D80E4}">
-      <formula1>"North,South, East, West"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If residential provide number of persons per floor , otherwise BLANK. If hotel provide number of rooms, otherwise BLANK." sqref="D4:E35" xr:uid="{254F0481-AEAB-49F2-9CA8-A0F77555163F}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Number of floors" sqref="F4:F35" xr:uid="{905BBD29-F5B4-4EE5-B581-80027D2E5766}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Building floor width" sqref="G4:G35" xr:uid="{0637BCA5-E08F-44DD-95EA-1943B516CF12}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Building floor length" sqref="H4:H35" xr:uid="{5A4B68D5-B975-416C-A93B-2E2CDCCA163B}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Building floors height" sqref="I4:I35" xr:uid="{BF005696-551A-4861-9D2E-1D8F7B0C2B57}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Space heating working fluid temperature. Conventional: heaters fluid working at 75ºC-45ºC; Low temperature:heaters fluid working at 50ºC-30ºC" sqref="J4:J35" xr:uid="{8C105DC9-D83F-4D7C-8835-BA826701785E}">
-      <formula1>"Conventional, Low temperature"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air maximum temperature during occupied hours; Cooling is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="K4:K35" xr:uid="{EF16D6D7-156B-45C2-AEAF-73C7632D1604}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air minimum temperature during occupied hours; Heating is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="L4:L35" xr:uid="{56A5224E-ABE6-42AC-B5BD-E5B1659F12DA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air maximum temperature during unnoccupied hours; Cooling is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="M4:M35" xr:uid="{FDAC099D-F057-4DA0-9AC7-D72F9BDBEF23}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Indoor air minimum temperature during unnoccupied hours; Heating is turned on to hold this temperature (if there is no setpoint, leave empty)" sqref="N4:N35" xr:uid="{9974ACDE-2CD9-4B35-88C9-938DC7757CB7}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="Y5:Y35" xr:uid="{6C36BCA4-7532-4CB3-B1E7-FF147EC5B7C3}">
-      <formula1>"yes;no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Sunday (stream/building). Daily periods assumed on Sunday" sqref="Z5:Z35" xr:uid="{67A10EC7-3D2A-4A27-97CA-E020F7B3A01D}">
-      <formula1>"yes;no"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Daily Periods Input" prompt="Daily hourly periods stream/building is available/occupied. (e.g. [[0,12]] or [[9,12],[17,23]]). Pay attention to the brackets when introducing periods" sqref="X4:X35" xr:uid="{BA37E994-C7E6-4A31-A45C-B223C8F879F2}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Introduce the yearly value" sqref="AB4:AB35" xr:uid="{9454B669-B7C1-439D-A6C6-BF11ED1A2303}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Introduce list with a value for each month; e.g [234, 200,...]" sqref="AA4:AA35" xr:uid="{C0275D01-B8F8-468A-84BD-27E82381A762}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING - Introduce list with a value for each month; e.g [234, 200,...]" sqref="AC4:AC35" xr:uid="{569DEFC2-1FC6-41BF-84A2-A85CDD8D0A52}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING- Introduce the yearly value" sqref="AD4:AD35" xr:uid="{71997143-1542-4614-95F3-4CA57C79BF63}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of North wall area in the facade area (facade = wall + glass). Value between 0 and 1" sqref="O4:O35" xr:uid="{1844E762-E11D-4FC0-94F2-520185B15967}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of South wall area in the facade area (facade = wall + glass). Value between 0 and 1." sqref="P4:P35" xr:uid="{51FD6CB5-437B-43AA-BF67-22797C2D3A3E}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of East wall area in the facade area (facade = wall + glass). Value between 0 and 1." sqref="Q4:Q35" xr:uid="{A35B47A6-2562-44FD-B820-F96390B87249}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Ratio of West wall area in the facade area (facade = wall + glass). Value between 0 and 1" sqref="R4:R35" xr:uid="{2C1E9AA3-88B6-4679-8ACF-FFF3DE5200C0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Ref. System - Equipment Efficiency', 'number', 'text','[]','ref_system_eff_equipment', 'Reference system Equipment efficiency. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by" sqref="T4:T35" xr:uid="{346086D3-2A9D-4CA2-AF41-ED51F1A8993A}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING - Ref. System - Equipment Efficiency', 'number', 'text','[]','ref_system_eff_equipment', 'Reference system Equipment efficiency. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by" sqref="V4:V35" xr:uid="{517792D2-4983-4B8C-9A46-26075DC41ED0}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Shutdown Periods" prompt="Periods of days during the year the stream/building is not available/occupied. (e.g. [], [[1,12]] or [[200,231],[330,360]]. Pay attention to the brackets when introducing periods." sqref="W4:W35" xr:uid="{B0FEE2EA-40B5-43BD-B316-6DDB6F9C45D6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Orange columns to consider a similar schedule for all days; Yellow columns to introduce real data. **ALWAYS introduce Orange; a Yellow cell for each row, only if you have real data" sqref="X1:AD2" xr:uid="{002D80A1-C6C0-4BF2-B99F-A32716AE2436}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="Introduce building type" sqref="C4:C35" xr:uid="{904B5C95-2F20-40B2-BE6D-24AFEA565F15}">
-      <formula1>"residential,office,hotel"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="HEATING - Reference system Fuel Type. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by a natural gas boiler" sqref="S4:S35" xr:uid="{0ADDC566-887B-47DC-85EE-48F380C7BCEA}">
-      <formula1>"none,natural_gas,biomass,fuel_oil,electricity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="COOLING - Reference system Fuel Type. The reference system is the technology currently implemented to heat/cool a stream, e.g. A hot water circuit heated by a natural gas boiler" sqref="U4:U35" xr:uid="{43563217-CAFE-48A3-8BA9-E9AA255722C2}">
-      <formula1>"none,natural_gas,biomass,fuel_oil,electricity"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Info" prompt="If available/occupied on Saturday (stream/building). Daily periods assumed on Saturday" sqref="Y4:Z4" xr:uid="{A4791DE3-56C9-4717-96D3-2005AEFE1FE5}">
-      <formula1>"yes,no"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84af718c-fc6b-4714-bc8b-cb461e2b947f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F13EBE9D6F8C244F8B96B45BA7150D51" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="d6183bce8c7e1eaee2eb0ef0298792da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84af718c-fc6b-4714-bc8b-cb461e2b947f" xmlns:ns3="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b70513c8051bb4adb498efbbfaee921" ns2:_="" ns3:_="">
     <xsd:import namespace="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
@@ -13137,6 +13126,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84af718c-fc6b-4714-bc8b-cb461e2b947f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13147,23 +13147,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A124CE-25C7-4252-A76D-CEDFC75230D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F9E506-5D40-4391-B8AC-BF311571676A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13182,6 +13165,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A124CE-25C7-4252-A76D-CEDFC75230D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF50CD6D-3703-4A01-B1CA-F0F7464132C0}">
   <ds:schemaRefs>

--- a/test/inputs_test.xlsx
+++ b/test/inputs_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisboa\PycharmProjects\embers_offline\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3EE17D-2CFE-474E-9656-60F217531E60}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D22DC4FD-7569-4FEB-B231-56989DCBE620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="1000" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12775,7 +12775,7 @@
         <v>300</v>
       </c>
       <c r="E2" s="60">
-        <v>15000000000</v>
+        <v>15000000000000</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -12890,6 +12890,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84af718c-fc6b-4714-bc8b-cb461e2b947f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F13EBE9D6F8C244F8B96B45BA7150D51" ma:contentTypeVersion="15" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="d6183bce8c7e1eaee2eb0ef0298792da">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="84af718c-fc6b-4714-bc8b-cb461e2b947f" xmlns:ns3="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b70513c8051bb4adb498efbbfaee921" ns2:_="" ns3:_="">
     <xsd:import namespace="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
@@ -13126,17 +13137,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="84af718c-fc6b-4714-bc8b-cb461e2b947f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13147,6 +13147,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A124CE-25C7-4252-A76D-CEDFC75230D6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17F9E506-5D40-4391-B8AC-BF311571676A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13165,23 +13182,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48A124CE-25C7-4252-A76D-CEDFC75230D6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="84af718c-fc6b-4714-bc8b-cb461e2b947f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="bb9c2025-ac97-4ad2-a2b6-4c428eff93e3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF50CD6D-3703-4A01-B1CA-F0F7464132C0}">
   <ds:schemaRefs>
